--- a/ramp/Measured Consumption.xlsx
+++ b/ramp/Measured Consumption.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Thesis\My RAMP model\ramp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Thesis\My RAMP model\Master's Thesis\ramp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD6C47C-2A94-4399-BF58-FA0CB4B61726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D3202F-5535-4E87-B9C2-D12631712F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B23B8B09-24FD-438A-AE11-C1CD499912F4}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,40 +532,40 @@
         <v>20</v>
       </c>
       <c r="B2" s="3">
-        <v>7162</v>
+        <v>5027.6000000000004</v>
       </c>
       <c r="C2" s="3">
-        <v>3940</v>
+        <v>5146</v>
       </c>
       <c r="D2" s="3">
-        <v>6492</v>
+        <v>5430.4</v>
       </c>
       <c r="E2" s="3">
-        <v>8407</v>
+        <v>5990</v>
       </c>
       <c r="F2" s="3">
-        <v>3616</v>
+        <v>5290</v>
       </c>
       <c r="G2" s="3">
-        <v>6322</v>
+        <v>4846.3999999999996</v>
       </c>
       <c r="H2" s="3">
-        <v>6026</v>
+        <v>5968</v>
       </c>
       <c r="I2" s="3">
-        <v>6569</v>
+        <v>6988.8</v>
       </c>
       <c r="J2" s="3">
-        <v>4440</v>
+        <v>6488.8</v>
       </c>
       <c r="K2" s="3">
-        <v>6440</v>
+        <v>6334.8</v>
       </c>
       <c r="L2" s="3">
-        <v>7246</v>
+        <v>5928</v>
       </c>
       <c r="M2" s="3">
-        <v>5495</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -897,7 +897,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -912,7 +914,9 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1191,7 +1195,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1598,7 +1602,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1613,7 +1619,9 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1892,7 +1900,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,40 +1965,40 @@
         <v>20</v>
       </c>
       <c r="B2" s="3">
-        <v>7162</v>
+        <v>6342</v>
       </c>
       <c r="C2" s="3">
-        <v>3940</v>
+        <v>5444.4</v>
       </c>
       <c r="D2" s="3">
-        <v>6492</v>
+        <v>6600.4</v>
       </c>
       <c r="E2" s="3">
-        <v>8407</v>
+        <v>5904.8</v>
       </c>
       <c r="F2" s="3">
-        <v>3616</v>
+        <v>5675.6</v>
       </c>
       <c r="G2" s="3">
-        <v>6322</v>
+        <v>6721.6</v>
       </c>
       <c r="H2" s="3">
-        <v>6026</v>
+        <v>5430</v>
       </c>
       <c r="I2" s="3">
-        <v>6569</v>
+        <v>5859.2</v>
       </c>
       <c r="J2" s="3">
-        <v>4440</v>
+        <v>8048.8</v>
       </c>
       <c r="K2" s="3">
-        <v>6440</v>
+        <v>3774.4</v>
       </c>
       <c r="L2" s="3">
-        <v>7246</v>
+        <v>6932</v>
       </c>
       <c r="M2" s="3">
-        <v>5495</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2298,22 +2306,50 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8606</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7088</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7396</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6362</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7250</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7776</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6500</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7808</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10710</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5392</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10917</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8160</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2592,7 +2628,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2653,40 +2689,52 @@
         <v>20</v>
       </c>
       <c r="B2" s="3">
-        <v>7162</v>
+        <f>AVERAGE('2021'!B2,'2022'!B2,'2023'!B2)</f>
+        <v>6177.2</v>
       </c>
       <c r="C2" s="3">
-        <v>3940</v>
+        <f>AVERAGE('2021'!C2,'2022'!C2,'2023'!C2)</f>
+        <v>4843.4666666666662</v>
       </c>
       <c r="D2" s="3">
-        <v>6492</v>
+        <f>AVERAGE('2021'!D2,'2022'!D2,'2023'!D2)</f>
+        <v>6174.2666666666664</v>
       </c>
       <c r="E2" s="3">
-        <v>8407</v>
+        <f>AVERAGE('2021'!E2,'2022'!E2,'2023'!E2)</f>
+        <v>6767.2666666666664</v>
       </c>
       <c r="F2" s="3">
-        <v>3616</v>
+        <f>AVERAGE('2021'!F2,'2022'!F2,'2023'!F2)</f>
+        <v>4860.5333333333338</v>
       </c>
       <c r="G2" s="3">
-        <v>6322</v>
+        <f>AVERAGE('2021'!G2,'2022'!G2,'2023'!G2)</f>
+        <v>5963.333333333333</v>
       </c>
       <c r="H2" s="3">
-        <v>6026</v>
+        <f>AVERAGE('2021'!H2,'2022'!H2,'2023'!H2)</f>
+        <v>5808</v>
       </c>
       <c r="I2" s="3">
-        <v>6569</v>
+        <f>AVERAGE('2021'!I2,'2022'!I2,'2023'!I2)</f>
+        <v>6472.333333333333</v>
       </c>
       <c r="J2" s="3">
-        <v>4440</v>
+        <f>AVERAGE('2021'!J2,'2022'!J2,'2023'!J2)</f>
+        <v>6325.8666666666659</v>
       </c>
       <c r="K2" s="3">
-        <v>6440</v>
+        <f>AVERAGE('2021'!K2,'2022'!K2,'2023'!K2)</f>
+        <v>5516.4000000000005</v>
       </c>
       <c r="L2" s="3">
-        <v>7246</v>
+        <f>AVERAGE('2021'!L2,'2022'!L2,'2023'!L2)</f>
+        <v>6702</v>
       </c>
       <c r="M2" s="3">
-        <v>5495</v>
+        <f>AVERAGE('2021'!M2,'2022'!M2,'2023'!M2)</f>
+        <v>5512.333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3102,22 +3150,50 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8606</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7088</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7396</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6362</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7250</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7776</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6500</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7808</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10710</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5392</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10917</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8160</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
